--- a/antife/valgiarastis_data.xlsx
+++ b/antife/valgiarastis_data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,7 +624,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MOLIŪGŲ SRIUBA</t>
+          <t>Mandarinai</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -654,7 +654,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MORKŲ BHADŽI</t>
+          <t>MOLIŪGŲ SRIUBA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MORKŲ IR PASTARNOKŲ APKEPAS</t>
+          <t>MORKŲ BHADŽI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PRANCŪZIŠKI SKREBUČIAI</t>
+          <t>MORKŲ IR PASTARNOKŲ APKEPAS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -699,7 +699,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KREMINIAI GRYBAI ANT SKREBUČIO</t>
+          <t>PRANCŪZIŠKI SKREBUČIAI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -714,7 +714,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MORKŲ BLYNELIAI</t>
+          <t>KREMINIAI GRYBAI ANT SKREBUČIO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MOLIŪGŲ SRIUBA</t>
+          <t>MORKŲ BLYNELIAI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SŪRIO IR SVOGŪNŲ BANDELĖS</t>
+          <t>MOLIŪGŲ SRIUBA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -759,7 +759,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RABANADOS</t>
+          <t>SŪRIO IR SVOGŪNŲ BANDELĖS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -774,7 +774,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ŠVIEŽIŲ VAISIŲ KOKTEILIS</t>
+          <t>RABANADOS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PASTARNOKŲ BLYNELIAI</t>
+          <t>ŠVIEŽIŲ VAISIŲ KOKTEILIS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KREMINĖ GRYBŲ SRIUBA</t>
+          <t>PASTARNOKŲ BLYNELIAI</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -819,7 +819,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KREMINIAI GRYBŲ MAKARONAI</t>
+          <t>KREMINĖ GRYBŲ SRIUBA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MORKŲ IR PASTARNOKŲ APKEPAS</t>
+          <t>KREMINIAI GRYBŲ MAKARONAI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PIEVAGRYBIŲ ARANCINI</t>
+          <t>MORKŲ IR PASTARNOKŲ APKEPAS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KREMINIAI GRYBAI ANT SKREBUČIO</t>
+          <t>PIEVAGRYBIŲ ARANCINI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>grazvio receptas</t>
+          <t>KREMINIAI GRYBAI ANT SKREBUČIO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -894,7 +894,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MORKŲ IR PASTARNOKŲ APKEPAS</t>
+          <t>grazvio receptas</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BAKLAŽANŲ KEPSNIAI</t>
+          <t>MORKŲ IR PASTARNOKŲ APKEPAS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -924,7 +924,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>grazvio receptas</t>
+          <t>BAKLAŽANŲ KEPSNIAI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -939,7 +939,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MORKŲ IR PASTARNOKŲ APKEPAS</t>
+          <t>grazvio receptas</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -954,7 +954,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BARBEKIU DARŽOVIŲ KEBABAS</t>
+          <t>MORKŲ IR PASTARNOKŲ APKEPAS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MORKŲ IR PASTARNOKŲ APKEPAS</t>
+          <t>BARBEKIU DARŽOVIŲ KEBABAS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -984,7 +984,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RABANADOS</t>
+          <t>MORKŲ IR PASTARNOKŲ APKEPAS</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -993,21 +993,36 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>RABANADOS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pusryčiai</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>SUŠIAI</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Pusryčiai</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pusryčiai</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>50</v>
       </c>
     </row>
@@ -1017,222 +1032,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Pavadinimas</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Kategorija</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Kiekis</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Šilauogės</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Pietūs</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Vištienos filė (šviežia)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pietūs</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Viščiukų sparneliai(švieži)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pietūs</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Fetos suris</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pietūs</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bulvės</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pietūs</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MOLIŪGŲ SRIUBA</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pietūs</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>BAKLAŽANŲ KEPSNIAI</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pietūs</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MOLIŪGŲ KOTLETUKAI</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Pietūs</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MORKŲ IR PASTARNOKŲ APKEPAS</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Pietūs</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SŪRIO IR SVOGŪNŲ BANDELĖS</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Pietūs</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>KOLADĄ PAMIRKYTI BANANAI</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Pietūs</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>BARŠČIAI</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pietūs</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1266,6 +1065,237 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Šilauogės</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pietūs</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Vištienos filė (šviežia)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pietūs</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Viščiukų sparneliai(švieži)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pietūs</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fetos suris</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pietūs</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bulvės</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pietūs</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Šilauogės</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pietūs</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MOLIŪGŲ SRIUBA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pietūs</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BAKLAŽANŲ KEPSNIAI</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pietūs</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MOLIŪGŲ KOTLETUKAI</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pietūs</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MORKŲ IR PASTARNOKŲ APKEPAS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pietūs</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SŪRIO IR SVOGŪNŲ BANDELĖS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pietūs</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KOLADĄ PAMIRKYTI BANANAI</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pietūs</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BARŠČIAI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pietūs</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Pavadinimas</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Kategorija</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Kiekis</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Cukinijos</t>
         </is>
       </c>
@@ -1456,6 +1486,21 @@
       </c>
       <c r="C14" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BARŠČIAI</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vakarienė</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
